--- a/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T16:32:17+00:00</t>
+    <t>2025-09-16T17:07:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T17:07:03+00:00</t>
+    <t>2025-09-16T17:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T17:27:10+00:00</t>
+    <t>2025-09-16T18:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T18:09:51+00:00</t>
+    <t>2025-09-16T18:28:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T18:28:12+00:00</t>
+    <t>2025-09-16T18:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T18:51:55+00:00</t>
+    <t>2025-09-16T19:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T19:31:40+00:00</t>
+    <t>2025-09-16T20:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/sitepreview/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T20:21:38+00:00</t>
+    <t>2025-09-16T20:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
